--- a/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Procedur" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core Undefine" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -236,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-procedure-condition-vs.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
